--- a/web/storage/excel/Feuil4-Processing-Empty.xlsx
+++ b/web/storage/excel/Feuil4-Processing-Empty.xlsx
@@ -553,9 +553,6 @@
     <t>Screenshot Wave Business</t>
   </si>
   <si>
-    <t>.Screenshot_2026-02-11-20-38-19-059.jpg</t>
-  </si>
-  <si>
     <t>Screenshot_2026-02-11-20-21-02-946.jpg</t>
   </si>
   <si>
@@ -629,6 +626,9 @@
   </si>
   <si>
     <t>TipTop Transfer Business</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-20-38-19-059.jpg</t>
   </si>
 </sst>
 </file>
@@ -1051,9 +1051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,10 +3336,10 @@
         <v>173</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -3372,10 +3372,10 @@
         <v>175</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -3408,10 +3408,10 @@
         <v>175</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -3444,10 +3444,10 @@
         <v>175</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -3480,10 +3480,10 @@
         <v>175</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -3516,10 +3516,10 @@
         <v>175</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -3552,10 +3552,10 @@
         <v>175</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3588,10 +3588,10 @@
         <v>175</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -3624,10 +3624,10 @@
         <v>175</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -3660,10 +3660,10 @@
         <v>175</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -3696,10 +3696,10 @@
         <v>175</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -3732,10 +3732,10 @@
         <v>175</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3768,10 +3768,10 @@
         <v>175</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -3804,10 +3804,10 @@
         <v>175</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -3840,10 +3840,10 @@
         <v>175</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3876,10 +3876,10 @@
         <v>175</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3912,10 +3912,10 @@
         <v>175</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -3948,10 +3948,10 @@
         <v>175</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -3984,10 +3984,10 @@
         <v>175</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -4020,10 +4020,10 @@
         <v>175</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -4056,10 +4056,10 @@
         <v>175</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -4092,10 +4092,10 @@
         <v>175</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -4128,10 +4128,10 @@
         <v>175</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
